--- a/Final Project 2/capstone/company/static/company/data/data.xlsx
+++ b/Final Project 2/capstone/company/static/company/data/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\json\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Harvard\Projects\Final Project 2\capstone\company\static\company\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778BEED9-4D8B-4195-8CAB-AD0A3568F56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD6B22A-05E6-42B1-A96B-8EFE27D5B11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{784E024F-76C3-4519-9D9B-A93A129026CB}"/>
+    <workbookView xWindow="0" yWindow="1728" windowWidth="22956" windowHeight="10632" xr2:uid="{784E024F-76C3-4519-9D9B-A93A129026CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Counties" sheetId="1" r:id="rId1"/>
@@ -148,18 +148,12 @@
     <t>Migori</t>
   </si>
   <si>
-    <t>Mombasa (County)</t>
-  </si>
-  <si>
     <t>Mombasa (City)</t>
   </si>
   <si>
     <t>Murang'a</t>
   </si>
   <si>
-    <t>Nairobi (County)</t>
-  </si>
-  <si>
     <t>Nairobi (City)</t>
   </si>
   <si>
@@ -296,6 +290,12 @@
   </si>
   <si>
     <t>STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mombasa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nairobi </t>
   </si>
 </sst>
 </file>
@@ -665,12 +665,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E214E7FE-7F31-4EE2-BB6F-AAA850F57EA9}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1071,10 +1072,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
         <v>37</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
       </c>
       <c r="D29">
         <v>441</v>
@@ -1085,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30">
         <v>69</v>
@@ -1099,10 +1100,10 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31">
         <v>3</v>
@@ -1113,10 +1114,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32">
         <v>136</v>
@@ -1127,10 +1128,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33">
         <v>249</v>
@@ -1141,10 +1142,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34">
         <v>108</v>
@@ -1155,10 +1156,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D35">
         <v>225</v>
@@ -1169,10 +1170,10 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D36">
         <v>127</v>
@@ -1183,10 +1184,10 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D37">
         <v>98</v>
@@ -1197,10 +1198,10 @@
         <v>25</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>390</v>
@@ -1211,10 +1212,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D39">
         <v>319</v>
@@ -1225,10 +1226,10 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40">
         <v>292</v>
@@ -1239,10 +1240,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <v>294</v>
@@ -1253,10 +1254,10 @@
         <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D42">
         <v>180</v>
@@ -1267,10 +1268,10 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D43">
         <v>333</v>
@@ -1281,10 +1282,10 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44">
         <v>499</v>
@@ -1295,10 +1296,10 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D45">
         <v>265</v>
@@ -1309,10 +1310,10 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D46">
         <v>278</v>
@@ -1323,10 +1324,10 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D47">
         <v>494</v>
@@ -1337,10 +1338,10 @@
         <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48">
         <v>362</v>
@@ -1356,7 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E977DA62-6F1B-4247-9BF1-E063C2223F5A}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1367,7 +1368,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1375,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1383,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1391,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1399,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1407,7 +1408,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1415,7 +1416,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1436,7 +1437,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1444,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1452,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1460,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1468,7 +1469,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +1489,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1496,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1504,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
@@ -1512,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
